--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2116.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2116.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.499299400156983</v>
+        <v>0.980768084526062</v>
       </c>
       <c r="B1">
-        <v>1.821100855008113</v>
+        <v>3.836013317108154</v>
       </c>
       <c r="C1">
-        <v>1.49670348254488</v>
+        <v>2.767821073532104</v>
       </c>
       <c r="D1">
-        <v>1.530656426376911</v>
+        <v>1.766888737678528</v>
       </c>
       <c r="E1">
-        <v>1.745066845049542</v>
+        <v>1.431453824043274</v>
       </c>
     </row>
   </sheetData>
